--- a/evaluation-households/households_total.xlsx
+++ b/evaluation-households/households_total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6997619\Documents\DHZW_synthetic-population\evaluation-households\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF32075A-944C-4203-A20B-1C2DEEED0D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573811AF-4363-45C3-9741-540827DF02AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>neighb_code</t>
   </si>
   <si>
-    <t>real_hh_total</t>
-  </si>
-  <si>
     <t>generated_hh_total</t>
   </si>
   <si>
@@ -88,6 +85,30 @@
   </si>
   <si>
     <t>generated_hh_with_children</t>
+  </si>
+  <si>
+    <t>prop_singles</t>
+  </si>
+  <si>
+    <t>prop_without_children</t>
+  </si>
+  <si>
+    <t>prop_with_children</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>hh_singles</t>
+  </si>
+  <si>
+    <t>hh_with_children</t>
+  </si>
+  <si>
+    <t>real_hh_without_children</t>
   </si>
 </sst>
 </file>
@@ -123,8 +144,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,354 +466,660 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="J3">
+        <f>SUM(G3:I3)</f>
         <v>29</v>
       </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2">
+      <c r="K3" s="1">
+        <f>G3/F3</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="L3" s="1">
+        <f>H3/F3</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="M3" s="1">
+        <f>I3/F3</f>
+        <v>0.34482758620689657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7840</v>
+      </c>
+      <c r="C4">
+        <v>3735</v>
+      </c>
+      <c r="D4">
+        <v>2275</v>
+      </c>
+      <c r="E4">
+        <v>2275</v>
+      </c>
+      <c r="F4">
+        <v>7999</v>
+      </c>
+      <c r="G4">
+        <v>3941</v>
+      </c>
+      <c r="H4">
+        <v>1939</v>
+      </c>
+      <c r="I4">
+        <v>2119</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J15" si="0">SUM(G4:I4)</f>
+        <v>7999</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K15" si="1">G4/F4</f>
+        <v>0.49268658582322788</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L15" si="2">H4/F4</f>
+        <v>0.24240530066258281</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M15" si="3">I4/F4</f>
+        <v>0.26490811351418925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <f>SUM(D2:F2)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>7840</v>
-      </c>
-      <c r="C3">
-        <v>7999</v>
-      </c>
-      <c r="D3">
-        <v>3941</v>
-      </c>
-      <c r="E3">
-        <v>1939</v>
-      </c>
-      <c r="F3">
-        <v>2119</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G14" si="0">SUM(D3:F3)</f>
-        <v>7999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+      <c r="B5">
         <v>4015</v>
       </c>
-      <c r="C4">
+      <c r="C5">
+        <v>1880</v>
+      </c>
+      <c r="D5">
+        <v>1525</v>
+      </c>
+      <c r="E5">
+        <v>1525</v>
+      </c>
+      <c r="F5">
         <v>4195</v>
       </c>
-      <c r="D4">
+      <c r="G5">
         <v>1933</v>
       </c>
-      <c r="E4">
+      <c r="H5">
         <v>635</v>
       </c>
-      <c r="F4">
+      <c r="I5">
         <v>1627</v>
       </c>
-      <c r="G4">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>4195</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4607866507747318</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15137067938021453</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38784266984505361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>3745</v>
       </c>
-      <c r="C5">
+      <c r="C6">
+        <v>1690</v>
+      </c>
+      <c r="D6">
+        <v>1370</v>
+      </c>
+      <c r="E6">
+        <v>1370</v>
+      </c>
+      <c r="F6">
         <v>3819</v>
       </c>
-      <c r="D5">
+      <c r="G6">
         <v>1700</v>
       </c>
-      <c r="E5">
+      <c r="H6">
         <v>697</v>
       </c>
-      <c r="F5">
+      <c r="I6">
         <v>1422</v>
       </c>
-      <c r="G5">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>3819</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4451427075150563</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18250851008117308</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.37234878240377062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>4940</v>
       </c>
-      <c r="C6">
+      <c r="C7">
+        <v>2255</v>
+      </c>
+      <c r="D7">
+        <v>1830</v>
+      </c>
+      <c r="E7">
+        <v>1830</v>
+      </c>
+      <c r="F7">
         <v>5183</v>
       </c>
-      <c r="D6">
+      <c r="G7">
         <v>2318</v>
       </c>
-      <c r="E6">
+      <c r="H7">
         <v>888</v>
       </c>
-      <c r="F6">
+      <c r="I7">
         <v>1977</v>
       </c>
-      <c r="G6">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>5183</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4472313332047077</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17132934593864557</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38143932085664672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>820</v>
       </c>
-      <c r="C7">
+      <c r="C8">
+        <v>435</v>
+      </c>
+      <c r="D8">
+        <v>185</v>
+      </c>
+      <c r="E8">
+        <v>185</v>
+      </c>
+      <c r="F8">
         <v>861</v>
       </c>
-      <c r="D7">
+      <c r="G8">
         <v>456</v>
       </c>
-      <c r="E7">
+      <c r="H8">
         <v>218</v>
       </c>
-      <c r="F7">
+      <c r="I8">
         <v>187</v>
       </c>
-      <c r="G7">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>861</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52961672473867594</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25319396051103366</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.21718931475029035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>3225</v>
       </c>
-      <c r="C8">
+      <c r="C9">
+        <v>1650</v>
+      </c>
+      <c r="D9">
+        <v>1020</v>
+      </c>
+      <c r="E9">
+        <v>1020</v>
+      </c>
+      <c r="F9">
         <v>3132</v>
       </c>
-      <c r="D8">
+      <c r="G9">
         <v>1541</v>
       </c>
-      <c r="E8">
+      <c r="H9">
         <v>526</v>
       </c>
-      <c r="F8">
+      <c r="I9">
         <v>1065</v>
       </c>
-      <c r="G8">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>3132</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49201787994891444</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16794380587484037</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.34003831417624519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>3465</v>
       </c>
-      <c r="C9">
+      <c r="C10">
+        <v>1500</v>
+      </c>
+      <c r="D10">
+        <v>1275</v>
+      </c>
+      <c r="E10">
+        <v>1275</v>
+      </c>
+      <c r="F10">
         <v>3652</v>
       </c>
-      <c r="D9">
+      <c r="G10">
         <v>1613</v>
       </c>
-      <c r="E9">
+      <c r="H10">
         <v>745</v>
       </c>
-      <c r="F9">
+      <c r="I10">
         <v>1294</v>
       </c>
-      <c r="G9">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>3652</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44167579408543262</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20399780941949616</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35432639649507119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>3230</v>
       </c>
-      <c r="C10">
+      <c r="C11">
+        <v>1865</v>
+      </c>
+      <c r="D11">
+        <v>860</v>
+      </c>
+      <c r="E11">
+        <v>860</v>
+      </c>
+      <c r="F11">
         <v>3043</v>
       </c>
-      <c r="D10">
+      <c r="G11">
         <v>1693</v>
       </c>
-      <c r="E10">
+      <c r="H11">
         <v>462</v>
       </c>
-      <c r="F10">
+      <c r="I11">
         <v>888</v>
       </c>
-      <c r="G10">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>3043</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55635885639171867</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15182385803483406</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.29181728557344727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>115</v>
       </c>
-      <c r="C11">
+      <c r="C12">
+        <v>95</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
         <v>117</v>
       </c>
-      <c r="D11">
+      <c r="G12">
         <v>87</v>
       </c>
-      <c r="E11">
+      <c r="H12">
         <v>21</v>
       </c>
-      <c r="F11">
+      <c r="I12">
         <v>9</v>
       </c>
-      <c r="G11">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.74358974358974361</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>1720</v>
       </c>
-      <c r="C12">
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>525</v>
+      </c>
+      <c r="E13">
+        <v>525</v>
+      </c>
+      <c r="F13">
         <v>1653</v>
       </c>
-      <c r="D12">
+      <c r="G13">
         <v>893</v>
       </c>
-      <c r="E12">
+      <c r="H13">
         <v>181</v>
       </c>
-      <c r="F12">
+      <c r="I13">
         <v>579</v>
       </c>
-      <c r="G12">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>1653</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54022988505747127</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10949788263762855</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35027223230490018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>3495</v>
       </c>
-      <c r="C13">
+      <c r="C14">
+        <v>1730</v>
+      </c>
+      <c r="D14">
+        <v>1170</v>
+      </c>
+      <c r="E14">
+        <v>1170</v>
+      </c>
+      <c r="F14">
         <v>3373</v>
       </c>
-      <c r="D13">
+      <c r="G14">
         <v>1547</v>
       </c>
-      <c r="E13">
+      <c r="H14">
         <v>539</v>
       </c>
-      <c r="F13">
+      <c r="I14">
         <v>1287</v>
       </c>
-      <c r="G13">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>3373</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45864215831603916</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15979839905128965</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38155944263267122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>2450</v>
       </c>
-      <c r="C14">
+      <c r="C15">
+        <v>1300</v>
+      </c>
+      <c r="D15">
+        <v>785</v>
+      </c>
+      <c r="E15">
+        <v>785</v>
+      </c>
+      <c r="F15">
         <v>2159</v>
       </c>
-      <c r="D14">
+      <c r="G15">
         <v>930</v>
       </c>
-      <c r="E14">
+      <c r="H15">
         <v>267</v>
       </c>
-      <c r="F14">
+      <c r="I15">
         <v>962</v>
       </c>
-      <c r="G14">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>2159</v>
       </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43075497915701716</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12366836498378879</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.44557665585919409</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>